--- a/resources/箱包/箱包专业词汇.xlsx
+++ b/resources/箱包/箱包专业词汇.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="621"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="621" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="种类" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="18" r:id="rId2"/>
+    <sheet name="Handbags" sheetId="19" r:id="rId2"/>
     <sheet name="织物" sheetId="17" r:id="rId3"/>
     <sheet name="线迹" sheetId="7" r:id="rId4"/>
     <sheet name="手针缝法" sheetId="8" r:id="rId5"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="2021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="2127">
   <si>
     <t>背包</t>
   </si>
@@ -6135,125 +6135,74 @@
     <t>Camera Bags</t>
   </si>
   <si>
+    <t>Duffel Bags</t>
+  </si>
+  <si>
+    <t>Felt Bags</t>
+  </si>
+  <si>
+    <t>Garment Bags</t>
+  </si>
+  <si>
+    <t>Pet Bags</t>
+  </si>
+  <si>
+    <t>Shoulder Bags</t>
+  </si>
+  <si>
+    <t>Tool Bags</t>
+  </si>
+  <si>
+    <t>Tote Bags</t>
+  </si>
+  <si>
+    <t>EVA Cases</t>
+  </si>
+  <si>
+    <t>RFID Blocking Bags&amp;Casess</t>
+  </si>
+  <si>
+    <t>Digital Gear &amp; Camera Bags</t>
+  </si>
+  <si>
+    <t>Luggage</t>
+  </si>
+  <si>
+    <t>Wallets</t>
+  </si>
+  <si>
+    <t>Card Holders</t>
+  </si>
+  <si>
+    <t>Coin Purses</t>
+  </si>
+  <si>
+    <t>Key Wallets</t>
+  </si>
+  <si>
+    <t>Bag Parts &amp; Accessories</t>
+  </si>
+  <si>
+    <t>Cosmetic Bags &amp; Cases</t>
+  </si>
+  <si>
+    <t>School Bags</t>
+  </si>
+  <si>
+    <t>Promotional Bags</t>
+  </si>
+  <si>
+    <t>Handbags</t>
+  </si>
+  <si>
+    <t>Ali</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tote Bag</t>
+  </si>
+  <si>
     <t>Diaper Bags</t>
-  </si>
-  <si>
-    <t>Duffel Bags</t>
-  </si>
-  <si>
-    <t>Felt Bags</t>
-  </si>
-  <si>
-    <t>Garment Bags</t>
-  </si>
-  <si>
-    <t>Pet Bags</t>
-  </si>
-  <si>
-    <t>Shoulder Bags</t>
-  </si>
-  <si>
-    <t>Tool Bags</t>
-  </si>
-  <si>
-    <t>Tote Bags</t>
-  </si>
-  <si>
-    <t>EVA Cases</t>
-  </si>
-  <si>
-    <t>RFID Blocking Bags&amp;Casess</t>
-  </si>
-  <si>
-    <t>Digital Gear &amp; Camera Bags</t>
-  </si>
-  <si>
-    <t>Luggage</t>
-  </si>
-  <si>
-    <t>Wallets</t>
-  </si>
-  <si>
-    <t>Card Holders</t>
-  </si>
-  <si>
-    <t>Coin Purses</t>
-  </si>
-  <si>
-    <t>Key Wallets</t>
-  </si>
-  <si>
-    <t>Bag Parts &amp; Accessories</t>
-  </si>
-  <si>
-    <t>Cosmetic Bags &amp; Cases</t>
-  </si>
-  <si>
-    <t>School Bags</t>
-  </si>
-  <si>
-    <t>Promotional Bags</t>
-  </si>
-  <si>
-    <t>Handbags</t>
-  </si>
-  <si>
-    <t>Ali</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABS Eggshell backpack</t>
-  </si>
-  <si>
-    <t>Baby Carrier</t>
-  </si>
-  <si>
-    <t>Backpack</t>
-  </si>
-  <si>
-    <t>Camera Bag</t>
-  </si>
-  <si>
-    <t>Cooler Bag</t>
-  </si>
-  <si>
-    <t>Cosmetic Bag</t>
-  </si>
-  <si>
-    <t>Diaper Bag</t>
-  </si>
-  <si>
-    <t>EVA Case</t>
-  </si>
-  <si>
-    <t>Felt Bag</t>
-  </si>
-  <si>
-    <t>Passport holder and Pencil Case</t>
-  </si>
-  <si>
-    <t>Pet bag</t>
-  </si>
-  <si>
-    <t>RFID Blocking bags&amp;Cases</t>
-  </si>
-  <si>
-    <t>Shoulder bags</t>
-  </si>
-  <si>
-    <t>Tote Bag</t>
-  </si>
-  <si>
-    <t>Tool Bag</t>
-  </si>
-  <si>
-    <t>Trolley bag</t>
-  </si>
-  <si>
-    <t>Waist Bag</t>
-  </si>
-  <si>
-    <t>Diaper Bags</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6301,18 +6250,395 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Passport Holder</t>
-  </si>
-  <si>
     <t>Waist Bags</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>Unisex</t>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Genuine Leather</t>
+  </si>
+  <si>
+    <t>Polyester</t>
+  </si>
+  <si>
+    <t>Canvas</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>Cotton Fabric</t>
+  </si>
+  <si>
+    <t>Straw</t>
+  </si>
+  <si>
+    <t>Wicker</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Shoulder Bag</t>
+  </si>
+  <si>
+    <t>Hobo Bag</t>
+  </si>
+  <si>
+    <t>Clutch</t>
+  </si>
+  <si>
+    <t>Platform Shoes</t>
+  </si>
+  <si>
+    <t>Suppliers by Area</t>
+  </si>
+  <si>
+    <t>East Asia</t>
+  </si>
+  <si>
+    <t>South Asia</t>
+  </si>
+  <si>
+    <t>Southeast Asia</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Middle East</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>供应区域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suppliers by Country/Region</t>
+  </si>
+  <si>
+    <t>China (Mainland)</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Croatia (local name: Hrvatska)</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovakia (Slovak Republic)</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>供应国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zambia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Style</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Country/Region</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6361,6 +6687,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -6370,7 +6703,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -6378,50 +6711,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="5"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="5"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5"/>
-      </left>
-      <right style="thin">
-        <color theme="5"/>
-      </right>
-      <top style="thin">
-        <color theme="5"/>
-      </top>
-      <bottom style="thin">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5"/>
-      </left>
-      <right style="thin">
-        <color theme="5"/>
-      </right>
-      <top style="thin">
-        <color theme="5"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6443,23 +6737,352 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="69">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -6565,36 +7188,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -7139,71 +7732,126 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:E40"/>
   <sortState ref="A2:E40">
     <sortCondition ref="A1:A40"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="英文" dataDxfId="6"/>
-    <tableColumn id="2" name="中文" dataDxfId="5"/>
-    <tableColumn id="6" name="Category" dataDxfId="4"/>
-    <tableColumn id="5" name="Ali" dataDxfId="3"/>
-    <tableColumn id="3" name="丁亮店铺" dataDxfId="2"/>
+    <tableColumn id="1" name="英文" dataDxfId="32"/>
+    <tableColumn id="2" name="中文" dataDxfId="31"/>
+    <tableColumn id="6" name="Category" dataDxfId="30"/>
+    <tableColumn id="5" name="Ali" dataDxfId="29"/>
+    <tableColumn id="3" name="丁亮店铺" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表7" displayName="表7" ref="A1:F8" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:F8"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Leather" dataDxfId="18"/>
-    <tableColumn id="2" name="皮革" dataDxfId="17"/>
-    <tableColumn id="3" name="特性" dataDxfId="16"/>
-    <tableColumn id="7" name="宽度" dataDxfId="15"/>
-    <tableColumn id="6" name="支持工艺" dataDxfId="14"/>
-    <tableColumn id="5" name="图案" dataDxfId="13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="表21" displayName="表21" ref="A145:B153" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+  <autoFilter ref="A145:B153"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Certification" dataDxfId="55"/>
+    <tableColumn id="2" name="认证" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="表14" displayName="表14" ref="A10:B18" totalsRowShown="0" dataDxfId="12">
-  <autoFilter ref="A10:B18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="表23" displayName="表23" ref="A155:B163" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+  <autoFilter ref="A155:B163"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Feature" dataDxfId="11"/>
-    <tableColumn id="2" name="特性" dataDxfId="10"/>
+    <tableColumn id="1" name="Pattern" dataDxfId="51"/>
+    <tableColumn id="2" name="图案" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="表16" displayName="表16" ref="A20:B25" totalsRowShown="0">
-  <autoFilter ref="A20:B25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="表25" displayName="表25" ref="A165:B173" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+  <autoFilter ref="A165:B173"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Width"/>
-    <tableColumn id="2" name="宽度" dataDxfId="9"/>
+    <tableColumn id="1" name="Material" dataDxfId="47"/>
+    <tableColumn id="2" name="原料" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="表17" displayName="表17" ref="A32:B40" totalsRowShown="0">
-  <autoFilter ref="A32:B40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A1:B59" totalsRowShown="0">
+  <autoFilter ref="A1:B59"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Pattern"/>
-    <tableColumn id="2" name="图案" dataDxfId="8"/>
+    <tableColumn id="1" name="STITCH"/>
+    <tableColumn id="2" name="线迹"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表6" displayName="表6" ref="A1:B16" totalsRowShown="0">
+  <autoFilter ref="A1:B16"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="STITCH"/>
+    <tableColumn id="2" name="手针缝法"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表7" displayName="表7" ref="A1:F8" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+  <autoFilter ref="A1:F8"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Leather" dataDxfId="43"/>
+    <tableColumn id="2" name="皮革" dataDxfId="42"/>
+    <tableColumn id="3" name="特性" dataDxfId="41"/>
+    <tableColumn id="7" name="宽度" dataDxfId="40"/>
+    <tableColumn id="6" name="支持工艺" dataDxfId="39"/>
+    <tableColumn id="5" name="图案" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="表14" displayName="表14" ref="A10:B18" totalsRowShown="0" dataDxfId="37">
+  <autoFilter ref="A10:B18"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Feature" dataDxfId="36"/>
+    <tableColumn id="2" name="特性" dataDxfId="35"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="表16" displayName="表16" ref="A20:B25" totalsRowShown="0">
+  <autoFilter ref="A20:B25"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Width"/>
+    <tableColumn id="2" name="宽度" dataDxfId="34"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="表17" displayName="表17" ref="A32:B40" totalsRowShown="0">
+  <autoFilter ref="A32:B40"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Pattern"/>
+    <tableColumn id="2" name="图案" dataDxfId="33"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="表18" displayName="表18" ref="A27:B30" totalsRowShown="0">
   <autoFilter ref="A27:B30"/>
   <tableColumns count="2">
@@ -7214,7 +7862,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表13" displayName="表13" ref="A43:B46" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A43:B46"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Gender" dataDxfId="25"/>
+    <tableColumn id="2" name="性别" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A1:B122" totalsRowShown="0">
   <autoFilter ref="A1:B122"/>
   <tableColumns count="2">
@@ -7225,7 +7884,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="表9" displayName="表9" ref="A1:L48" totalsRowShown="0">
   <tableColumns count="12">
     <tableColumn id="3" name="扣"/>
@@ -7245,7 +7904,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表10" displayName="表10" ref="A1:D479" totalsRowShown="0">
   <autoFilter ref="A1:D479"/>
   <tableColumns count="4">
@@ -7258,7 +7917,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:D35" totalsRowShown="0">
   <autoFilter ref="A1:D35"/>
   <tableColumns count="4">
@@ -7271,7 +7930,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:D15" totalsRowShown="0">
   <autoFilter ref="A1:D15"/>
   <tableColumns count="4">
@@ -7284,18 +7943,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:B21" totalsRowShown="0">
-  <autoFilter ref="A1:B21"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="列1"/>
-    <tableColumn id="2" name="列2" dataDxfId="7"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="表12" displayName="表12" ref="A1:B45" totalsRowShown="0">
   <autoFilter ref="A1:B45"/>
   <tableColumns count="2">
@@ -7307,82 +7955,84 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="表19" displayName="表19" ref="A1:E133" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:E133"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Fabric" dataDxfId="41"/>
-    <tableColumn id="2" name="布料" dataDxfId="40"/>
-    <tableColumn id="3" name="原料" dataDxfId="39"/>
-    <tableColumn id="4" name="特性" dataDxfId="38"/>
-    <tableColumn id="5" name="图案" dataDxfId="37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="表22" displayName="表22" ref="A48:B56" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A48:B56"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Suppliers by Area" dataDxfId="21"/>
+    <tableColumn id="2" name="供应区域" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="表20" displayName="表20" ref="A135:B143" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A135:B143"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="表24" displayName="表24" ref="A58:B146" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A58:B146"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Feature" dataDxfId="34"/>
-    <tableColumn id="2" name="特性" dataDxfId="33"/>
+    <tableColumn id="1" name="Suppliers by Country/Region" dataDxfId="17"/>
+    <tableColumn id="2" name="供应国" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="表21" displayName="表21" ref="A145:B153" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A145:B153"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A12:B20" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A12:B20"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Certification" dataDxfId="30"/>
-    <tableColumn id="2" name="认证" dataDxfId="29"/>
+    <tableColumn id="1" name="Material" dataDxfId="13"/>
+    <tableColumn id="2" name="材料" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="表23" displayName="表23" ref="A155:B163" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="A155:B163"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="表26" displayName="表26" ref="A22:B27" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A22:B27"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Pattern" dataDxfId="26"/>
-    <tableColumn id="2" name="图案" dataDxfId="25"/>
+    <tableColumn id="1" name="Style" dataDxfId="9"/>
+    <tableColumn id="2" name="风格" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="表25" displayName="表25" ref="A165:B173" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A165:B173"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Material" dataDxfId="22"/>
-    <tableColumn id="2" name="原料" dataDxfId="21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="表27" displayName="表27" ref="A1:D8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:D8"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Style" dataDxfId="5"/>
+    <tableColumn id="2" name="Material" dataDxfId="4"/>
+    <tableColumn id="3" name="Area" dataDxfId="3"/>
+    <tableColumn id="4" name="Country/Region" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A1:B59" totalsRowShown="0">
-  <autoFilter ref="A1:B59"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="STITCH"/>
-    <tableColumn id="2" name="线迹"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="表19" displayName="表19" ref="A1:E133" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+  <autoFilter ref="A1:E133"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Fabric" dataDxfId="66"/>
+    <tableColumn id="2" name="布料" dataDxfId="65"/>
+    <tableColumn id="3" name="原料" dataDxfId="64"/>
+    <tableColumn id="4" name="特性" dataDxfId="63"/>
+    <tableColumn id="5" name="图案" dataDxfId="62"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表6" displayName="表6" ref="A1:B16" totalsRowShown="0">
-  <autoFilter ref="A1:B16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="表20" displayName="表20" ref="A135:B143" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+  <autoFilter ref="A135:B143"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="STITCH"/>
-    <tableColumn id="2" name="手针缝法"/>
+    <tableColumn id="1" name="Feature" dataDxfId="59"/>
+    <tableColumn id="2" name="特性" dataDxfId="58"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -7673,22 +8323,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -7696,16 +8347,16 @@
         <v>10</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>2005</v>
+        <v>1988</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>1582</v>
       </c>
@@ -7718,7 +8369,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>1581</v>
       </c>
@@ -7731,15 +8382,15 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>2013</v>
+        <v>1996</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>2016</v>
+        <v>1999</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1585</v>
@@ -7748,35 +8399,35 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1585</v>
       </c>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>2010</v>
+        <v>1993</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>2011</v>
+        <v>1994</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>1585</v>
       </c>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>1964</v>
       </c>
@@ -7789,41 +8440,41 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12" t="s">
-        <v>2007</v>
+        <v>1990</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>1585</v>
       </c>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
-        <v>2007</v>
+        <v>1990</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>1585</v>
       </c>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>1960</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>2016</v>
+        <v>1999</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>1585</v>
@@ -7832,15 +8483,15 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>1954</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>2008</v>
+        <v>1991</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>1585</v>
@@ -7849,13 +8500,13 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>2004</v>
+        <v>1987</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12" t="s">
-        <v>2008</v>
+        <v>1991</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1585</v>
@@ -7864,15 +8515,15 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>1586</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>2016</v>
+        <v>1999</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>1585</v>
@@ -7881,22 +8532,22 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>2017</v>
+        <v>2000</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>1585</v>
       </c>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>1587</v>
@@ -7907,7 +8558,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>1956</v>
       </c>
@@ -7915,16 +8566,16 @@
         <v>1961</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>2009</v>
+        <v>1992</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>1585</v>
       </c>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>1588</v>
@@ -7935,22 +8586,22 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>2006</v>
+        <v>1989</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>1585</v>
       </c>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>1579</v>
       </c>
@@ -7961,61 +8612,61 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>2009</v>
+        <v>1992</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>1585</v>
       </c>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12" t="s">
-        <v>2007</v>
+        <v>1990</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>1585</v>
       </c>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>2012</v>
+        <v>1995</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12" t="s">
-        <v>2011</v>
+        <v>1994</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>1585</v>
       </c>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
-        <v>2006</v>
+        <v>1989</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>1585</v>
       </c>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>1957</v>
       </c>
@@ -8023,14 +8674,14 @@
         <v>1963</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>2009</v>
+        <v>1992</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>1585</v>
       </c>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>1590</v>
       </c>
@@ -8043,9 +8694,9 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>1589</v>
@@ -8056,35 +8707,35 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>2015</v>
+        <v>1998</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12" t="s">
-        <v>2016</v>
+        <v>1999</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>1585</v>
       </c>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12" t="s">
-        <v>2008</v>
+        <v>1991</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>1585</v>
       </c>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>1592</v>
@@ -8095,20 +8746,20 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12" t="s">
-        <v>2008</v>
+        <v>1991</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>1585</v>
       </c>
       <c r="E30" s="12"/>
     </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>1955</v>
       </c>
@@ -8116,16 +8767,16 @@
         <v>1962</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>2008</v>
+        <v>1991</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>1585</v>
       </c>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>8</v>
@@ -8136,9 +8787,9 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>1593</v>
@@ -8149,9 +8800,9 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>7</v>
@@ -8162,7 +8813,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>1958</v>
       </c>
@@ -8170,14 +8821,14 @@
         <v>5</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>2006</v>
+        <v>1989</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>1585</v>
       </c>
       <c r="E35" s="12"/>
     </row>
-    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>1580</v>
       </c>
@@ -8188,7 +8839,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>1959</v>
       </c>
@@ -8201,22 +8852,22 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>2014</v>
+        <v>1997</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12" t="s">
-        <v>2016</v>
+        <v>1999</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>1585</v>
       </c>
       <c r="E38" s="12"/>
     </row>
-    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
-        <v>2020</v>
+        <v>2002</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>6</v>
@@ -8227,25 +8878,547 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12" t="s">
-        <v>2007</v>
+        <v>1990</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>1585</v>
       </c>
       <c r="E40" s="12"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="11" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="11" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="11" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="11" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="11" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="11" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="11" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="11" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="11" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="11" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="11" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="11" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="11" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="11" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="11" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="11" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="11" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="11" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="11" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="11" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="11" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="11" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="11" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="11" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="11" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="11" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="11" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="11" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="11" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="11" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="11" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="11" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="11" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="11" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="11" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="11" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="11" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="11" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="11" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="11" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="11" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="11" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="11" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="11" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" s="11" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="11" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="11" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="11" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="11" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="11" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="11" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="11" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="11" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="11" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="11" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="11" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="11" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="11" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" s="11" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="11" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="11" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="11" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" s="11" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" s="11" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" s="11" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" s="11" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="11" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" s="11" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" s="11" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" s="11" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" s="11" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" s="11" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" s="11" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" s="11" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" s="11" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" s="11" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" s="11" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" s="11" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" s="11" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" s="11" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" s="11" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" s="11" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" s="11" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" s="11" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" s="11" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" s="11" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" s="11" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" s="11" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" s="11" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" s="11" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" s="11" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" s="11" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" s="11" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" s="11" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" s="11" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" s="11" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" s="11" t="s">
+        <v>2121</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9218,189 +10391,165 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="11" customWidth="1"/>
+    <col min="3" max="3" width="9" style="11"/>
+    <col min="4" max="4" width="16.75" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1987</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1988</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1989</v>
-      </c>
-      <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1990</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>1991</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>1992</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>1993</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>1966</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>1994</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1995</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>1579</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>1996</v>
-      </c>
-      <c r="B13" s="13" t="s">
+    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2125</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="12" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="11" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>1998</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>1999</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>2000</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>2001</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>2002</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>2003</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>2014</v>
+    <row r="26" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/resources/箱包/箱包专业词汇.xlsx
+++ b/resources/箱包/箱包专业词汇.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="621" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="621"/>
   </bookViews>
   <sheets>
     <sheet name="种类" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="2127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="2129">
   <si>
     <t>背包</t>
   </si>
@@ -55,11 +55,11 @@
   </si>
   <si>
     <t>英文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>中文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>plain cloth</t>
@@ -267,15 +267,15 @@
   </si>
   <si>
     <t>机织物服装面料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>针织物面料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>中文2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>weft-knitted fabric</t>
@@ -444,11 +444,11 @@
   </si>
   <si>
     <t>衬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>衬-中文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>cotton</t>
@@ -488,11 +488,11 @@
   </si>
   <si>
     <t>填料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>填料-中文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>polyester</t>
@@ -559,7 +559,7 @@
   </si>
   <si>
     <t>布料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PLAIN STITCH ,FLAT STITCH</t>
@@ -914,11 +914,11 @@
   </si>
   <si>
     <t>STITCH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>线迹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>缭针法</t>
@@ -1000,11 +1000,11 @@
   </si>
   <si>
     <t>手针缝法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SLIP STITCH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>leather</t>
@@ -1416,29 +1416,29 @@
   </si>
   <si>
     <t>blue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>蓝色</t>
   </si>
   <si>
     <t>green</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>绿色</t>
   </si>
   <si>
     <t>purple</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Color</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>颜色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>black nickel (B)</t>
@@ -1640,7 +1640,7 @@
   </si>
   <si>
     <t>chrome (CR)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>鉻色</t>
@@ -1653,11 +1653,11 @@
   </si>
   <si>
     <t>antique brush</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>nickel brush</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>鎳色(刷面)</t>
@@ -1934,11 +1934,11 @@
   </si>
   <si>
     <t>snap hook US</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>swivel hook</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>hook</t>
@@ -1948,75 +1948,75 @@
   </si>
   <si>
     <t>钩扣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>swivel snaphook</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>D-ring</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>D 型環</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>o-ring</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>O 型環</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>扣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>六角環</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>塑片加圈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>belt loop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>pin snap</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>snap</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>珠鏈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>三角環</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>loop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>圈環</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>bradde chain</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>chain</t>
@@ -2026,19 +2026,19 @@
   </si>
   <si>
     <t>插扣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>撞釘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>釘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>日型梯扣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Compression Rivet</t>
@@ -2066,11 +2066,11 @@
   </si>
   <si>
     <t>Compression Rivet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Rivet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Ramie</t>
@@ -2449,19 +2449,19 @@
   </si>
   <si>
     <t>拉链</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>尼龙拉链</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>thread</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>thread</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Belt Buckle</t>
@@ -2537,15 +2537,15 @@
   </si>
   <si>
     <t>磁纽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>纽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>走珠纽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CUTTING BED</t>
@@ -3635,42 +3635,42 @@
   </si>
   <si>
     <t>front panel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>前片</t>
   </si>
   <si>
     <t>flap of pocket</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>袋盖</t>
   </si>
   <si>
     <t>Printing artwork</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>印刷图</t>
   </si>
   <si>
     <t>back panel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>后片</t>
   </si>
   <si>
     <t>inner pocket</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>里袋</t>
   </si>
   <si>
     <t>底板</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>bottom board</t>
@@ -3680,56 +3680,56 @@
   </si>
   <si>
     <t>handle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手把</t>
   </si>
   <si>
     <t>buckle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>扣具</t>
   </si>
   <si>
     <t>zip puller</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>拉头</t>
   </si>
   <si>
     <t>piping</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>胶骨</t>
   </si>
   <si>
     <t>binding</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>捆边</t>
   </si>
   <si>
     <t>barcode sticker</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>条形码不干胶</t>
   </si>
   <si>
     <t>polybag</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>塑料袋</t>
   </si>
   <si>
     <t>青古銅(ANT-B)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Cord-Locks (Toggle-Locks ,Barrel-Locks ) s锁（套索锁，桶锁）</t>
@@ -3859,18 +3859,18 @@
   </si>
   <si>
     <t>Cord-Locks (Toggle-Locks ,Barrel-Locks )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>s锁（套索锁，桶锁）</t>
   </si>
   <si>
     <t>磁纽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Holes Sto</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Polyvinyl(PVC)Sponge Trim PVC海绵配料</t>
@@ -4843,40 +4843,40 @@
   </si>
   <si>
     <t>Baby Carrier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ABS Eggshell backpack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>童车</t>
   </si>
   <si>
     <t>丁亮店铺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>运动包</t>
   </si>
   <si>
     <t>EVA 盒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>毛毡袋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>宠物袋</t>
   </si>
   <si>
     <t>Passport Holder</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>护照夹</t>
@@ -4892,347 +4892,347 @@
   </si>
   <si>
     <t>ABS蛋壳背包</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>转锁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>旋转钩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>旋转US钩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>小钩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>吸盘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>贴标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>塑钢拉头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>数码锁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>饰片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>绳钩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>如意钩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>尼龙拉头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>么术贴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>金属饰片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>金属拉头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>管条</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>钩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>别针</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>发泡棉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>织带手挽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>布标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>elastic rib</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>布类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>革类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>五金类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>拉链头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>狗钩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>方扣类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>撞钉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>钮扣类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>饰片类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>测试样</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>大货生产样</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>结构样</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>销售样</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>确认样</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>样版房</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>开料部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>包装部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>产皮车间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>绳类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>织带</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>计算机条形码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>凹纹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>变形手挽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>鸡眼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>七字钩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>铁板</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>锌合金制品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>半圆手把</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>护角</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>水壶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>钢线,铁圈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>拉饰片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>密码锁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>织带尾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>饰片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>角轮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>附属的配件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>开口袋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>轮组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>包边</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>圆顶层</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>车线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>纸卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>排气孔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>单开口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>菱形饰片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>间隔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>长方形饰片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>面车线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>正方形饰片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>头圈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>底盘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>盖底里</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>侧围</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>内置式拉杆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>脚座</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>可调节式的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>缝合线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RIVET</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>mesh / net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>rayon cloth flocking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>nylon/polyester inter-woven peach</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Leather</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PU Leather</t>
@@ -5242,57 +5242,57 @@
   </si>
   <si>
     <t>Synthetic Leather</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>合成革</t>
   </si>
   <si>
     <t>PVC Leather</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PVC 革</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Genuine Leather</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Cow Skin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>牛皮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Sheep Skin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>羊皮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>猪皮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>聚氨脂合成革(PU 革)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>特性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Feature</t>
   </si>
   <si>
     <t>Feature</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Waterproof</t>
@@ -5311,32 +5311,32 @@
   </si>
   <si>
     <t>防水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Elastic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>有弹性</t>
   </si>
   <si>
     <t>Anti-Mildew</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>抗霉</t>
   </si>
   <si>
     <t>Flame Retardant</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>阻燃</t>
   </si>
   <si>
     <t>Mothproof</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>防蛀</t>
@@ -5346,15 +5346,15 @@
   </si>
   <si>
     <t>环保</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Width</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>宽度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>54/55"</t>
@@ -5412,11 +5412,11 @@
   </si>
   <si>
     <t>非纺织的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>纺织的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>有浮雕图案的</t>
@@ -5432,7 +5432,7 @@
   </si>
   <si>
     <t>天然的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>蓝湿皮</t>
@@ -5442,23 +5442,23 @@
   </si>
   <si>
     <t>图案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Backing Technics</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>支持的工艺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>宽度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>支持工艺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Fabric</t>
@@ -5930,89 +5930,89 @@
   </si>
   <si>
     <t>原料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>图案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>认证</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>特性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>原料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>图案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>抗静电</t>
   </si>
   <si>
     <t>Waterproof</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>防水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Shrink-Resistant</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>防缩处</t>
   </si>
   <si>
     <t>Flame Retardant</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>环保</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>抗撕裂</t>
   </si>
   <si>
     <t>记忆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>抑菌</t>
   </si>
   <si>
     <t>Oeko-Tex Standard 100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>国际环保纺织标准 100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>EN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>欧洲标准</t>
   </si>
   <si>
     <t>染色的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>色织布</t>
   </si>
   <si>
     <t>Embroidered</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>绣花的</t>
@@ -6040,7 +6040,7 @@
   </si>
   <si>
     <t>100% Polypropylene</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>100%聚丙烯</t>
@@ -6077,7 +6077,7 @@
   </si>
   <si>
     <t>Dyed Fabric</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>染色布</t>
@@ -6102,7 +6102,7 @@
   </si>
   <si>
     <t>化妆包</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Shopping Bags</t>
@@ -6196,18 +6196,18 @@
   </si>
   <si>
     <t>Ali</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Tote Bag</t>
   </si>
   <si>
     <t>Diaper Bags</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Luggage &amp; Travel Bags</t>
@@ -6247,11 +6247,11 @@
   </si>
   <si>
     <t>保温袋，冰袋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Waist Bags</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Gender</t>
@@ -6267,7 +6267,7 @@
   </si>
   <si>
     <t>性别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Genuine Leather</t>
@@ -6295,7 +6295,7 @@
   </si>
   <si>
     <t>材料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Style</t>
@@ -6341,7 +6341,7 @@
   </si>
   <si>
     <t>供应区域</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Suppliers by Country/Region</t>
@@ -6609,42 +6609,69 @@
   </si>
   <si>
     <t>供应国</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Zambia</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>风格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Style</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Material</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Area</t>
   </si>
   <si>
     <t>Country/Region</t>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>aterial</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>质地</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -6694,6 +6721,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -6715,325 +6748,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="73">
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -7046,7 +6806,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -7059,7 +6823,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -7072,7 +6840,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -7092,6 +6864,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
+        <color auto="1"/>
         <name val="Microsoft YaHei UI"/>
         <scheme val="none"/>
       </font>
@@ -7106,20 +6879,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <color auto="1"/>
         <name val="Microsoft YaHei UI"/>
         <scheme val="none"/>
       </font>
@@ -7137,7 +6897,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Microsoft YaHei UI"/>
         <scheme val="none"/>
       </font>
@@ -7155,7 +6915,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Microsoft YaHei UI"/>
         <scheme val="none"/>
       </font>
@@ -7170,6 +6930,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
+        <color auto="1"/>
         <name val="Microsoft YaHei UI"/>
         <scheme val="none"/>
       </font>
@@ -7184,6 +6945,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
+        <color auto="1"/>
         <name val="Microsoft YaHei UI"/>
         <scheme val="none"/>
       </font>
@@ -7718,6 +7480,356 @@
       </font>
       <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -7732,56 +7844,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="72" dataDxfId="4">
   <autoFilter ref="A1:E40"/>
   <sortState ref="A2:E40">
     <sortCondition ref="A1:A40"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="英文" dataDxfId="32"/>
-    <tableColumn id="2" name="中文" dataDxfId="31"/>
-    <tableColumn id="6" name="Category" dataDxfId="30"/>
-    <tableColumn id="5" name="Ali" dataDxfId="29"/>
-    <tableColumn id="3" name="丁亮店铺" dataDxfId="28"/>
+    <tableColumn id="1" name="英文" dataDxfId="9"/>
+    <tableColumn id="2" name="中文" dataDxfId="8"/>
+    <tableColumn id="6" name="Category" dataDxfId="7"/>
+    <tableColumn id="5" name="Ali" dataDxfId="6"/>
+    <tableColumn id="3" name="丁亮店铺" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="表21" displayName="表21" ref="A145:B153" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
-  <autoFilter ref="A145:B153"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="表20" displayName="表20" ref="A135:B143" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A135:B143"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Certification" dataDxfId="55"/>
-    <tableColumn id="2" name="认证" dataDxfId="54"/>
+    <tableColumn id="1" name="Feature" dataDxfId="36"/>
+    <tableColumn id="2" name="特性" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="表23" displayName="表23" ref="A155:B163" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A155:B163"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="表21" displayName="表21" ref="A145:B153" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="A145:B153"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Pattern" dataDxfId="51"/>
-    <tableColumn id="2" name="图案" dataDxfId="50"/>
+    <tableColumn id="1" name="Certification" dataDxfId="32"/>
+    <tableColumn id="2" name="认证" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="表25" displayName="表25" ref="A165:B173" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
-  <autoFilter ref="A165:B173"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="表23" displayName="表23" ref="A155:B163" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A155:B163"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Material" dataDxfId="47"/>
-    <tableColumn id="2" name="原料" dataDxfId="46"/>
+    <tableColumn id="1" name="Pattern" dataDxfId="28"/>
+    <tableColumn id="2" name="图案" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="表25" displayName="表25" ref="A165:B173" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A165:B173"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Material" dataDxfId="24"/>
+    <tableColumn id="2" name="原料" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A1:B59" totalsRowShown="0">
   <autoFilter ref="A1:B59"/>
   <tableColumns count="2">
@@ -7792,7 +7915,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表6" displayName="表6" ref="A1:B16" totalsRowShown="0">
   <autoFilter ref="A1:B16"/>
   <tableColumns count="2">
@@ -7803,55 +7926,66 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表7" displayName="表7" ref="A1:F8" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表7" displayName="表7" ref="A1:F8" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:F8"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Leather" dataDxfId="43"/>
-    <tableColumn id="2" name="皮革" dataDxfId="42"/>
-    <tableColumn id="3" name="特性" dataDxfId="41"/>
-    <tableColumn id="7" name="宽度" dataDxfId="40"/>
-    <tableColumn id="6" name="支持工艺" dataDxfId="39"/>
-    <tableColumn id="5" name="图案" dataDxfId="38"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="表14" displayName="表14" ref="A10:B18" totalsRowShown="0" dataDxfId="37">
-  <autoFilter ref="A10:B18"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Feature" dataDxfId="36"/>
-    <tableColumn id="2" name="特性" dataDxfId="35"/>
+    <tableColumn id="1" name="Leather" dataDxfId="20"/>
+    <tableColumn id="2" name="皮革" dataDxfId="19"/>
+    <tableColumn id="3" name="特性" dataDxfId="18"/>
+    <tableColumn id="7" name="宽度" dataDxfId="17"/>
+    <tableColumn id="6" name="支持工艺" dataDxfId="16"/>
+    <tableColumn id="5" name="图案" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="表16" displayName="表16" ref="A20:B25" totalsRowShown="0">
-  <autoFilter ref="A20:B25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="表14" displayName="表14" ref="A10:B18" totalsRowShown="0" dataDxfId="14">
+  <autoFilter ref="A10:B18"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Width"/>
-    <tableColumn id="2" name="宽度" dataDxfId="34"/>
+    <tableColumn id="1" name="Feature" dataDxfId="13"/>
+    <tableColumn id="2" name="特性" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="表17" displayName="表17" ref="A32:B40" totalsRowShown="0">
-  <autoFilter ref="A32:B40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="表16" displayName="表16" ref="A20:B25" totalsRowShown="0">
+  <autoFilter ref="A20:B25"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Pattern"/>
-    <tableColumn id="2" name="图案" dataDxfId="33"/>
+    <tableColumn id="1" name="Width"/>
+    <tableColumn id="2" name="宽度" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="表17" displayName="表17" ref="A32:B40" totalsRowShown="0">
+  <autoFilter ref="A32:B40"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Pattern"/>
+    <tableColumn id="2" name="图案" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表13" displayName="表13" ref="A43:B46" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+  <autoFilter ref="A43:B46"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Gender" dataDxfId="69"/>
+    <tableColumn id="2" name="性别" dataDxfId="68"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="表18" displayName="表18" ref="A27:B30" totalsRowShown="0">
   <autoFilter ref="A27:B30"/>
   <tableColumns count="2">
@@ -7862,18 +7996,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表13" displayName="表13" ref="A43:B46" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A43:B46"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Gender" dataDxfId="25"/>
-    <tableColumn id="2" name="性别" dataDxfId="24"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A1:B122" totalsRowShown="0">
   <autoFilter ref="A1:B122"/>
   <tableColumns count="2">
@@ -7884,7 +8007,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="表9" displayName="表9" ref="A1:L48" totalsRowShown="0">
   <tableColumns count="12">
     <tableColumn id="3" name="扣"/>
@@ -7904,7 +8027,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表10" displayName="表10" ref="A1:D479" totalsRowShown="0">
   <autoFilter ref="A1:D479"/>
   <tableColumns count="4">
@@ -7917,7 +8040,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:D35" totalsRowShown="0">
   <autoFilter ref="A1:D35"/>
   <tableColumns count="4">
@@ -7930,7 +8053,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:D15" totalsRowShown="0">
   <autoFilter ref="A1:D15"/>
   <tableColumns count="4">
@@ -7943,7 +8066,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="表12" displayName="表12" ref="A1:B45" totalsRowShown="0">
   <autoFilter ref="A1:B45"/>
   <tableColumns count="2">
@@ -7955,82 +8078,82 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="表22" displayName="表22" ref="A48:B56" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="表22" displayName="表22" ref="A48:B56" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
   <autoFilter ref="A48:B56"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Suppliers by Area" dataDxfId="21"/>
-    <tableColumn id="2" name="供应区域" dataDxfId="20"/>
+    <tableColumn id="1" name="Suppliers by Area" dataDxfId="65"/>
+    <tableColumn id="2" name="供应区域" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="表24" displayName="表24" ref="A58:B146" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A58:B146"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="表24" displayName="表24" ref="A68:B156" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="A68:B156"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Suppliers by Country/Region" dataDxfId="17"/>
-    <tableColumn id="2" name="供应国" dataDxfId="16"/>
+    <tableColumn id="1" name="Suppliers by Country/Region" dataDxfId="61"/>
+    <tableColumn id="2" name="供应国" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A12:B20" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A12:B20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A58:B66" totalsRowShown="0" headerRowDxfId="3" dataDxfId="0">
+  <autoFilter ref="A58:B66"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Material" dataDxfId="13"/>
-    <tableColumn id="2" name="材料" dataDxfId="12"/>
+    <tableColumn id="1" name="Material" dataDxfId="2"/>
+    <tableColumn id="2" name="质地" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="表26" displayName="表26" ref="A22:B27" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A22:B27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A12:B20" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+  <autoFilter ref="A12:B20"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Style" dataDxfId="9"/>
-    <tableColumn id="2" name="风格" dataDxfId="8"/>
+    <tableColumn id="1" name="Material" dataDxfId="57"/>
+    <tableColumn id="2" name="材料" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="表27" displayName="表27" ref="A1:D8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:D8"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Style" dataDxfId="5"/>
-    <tableColumn id="2" name="Material" dataDxfId="4"/>
-    <tableColumn id="3" name="Area" dataDxfId="3"/>
-    <tableColumn id="4" name="Country/Region" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="表26" displayName="表26" ref="A22:B27" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+  <autoFilter ref="A22:B27"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Style" dataDxfId="53"/>
+    <tableColumn id="2" name="风格" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="表19" displayName="表19" ref="A1:E133" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
-  <autoFilter ref="A1:E133"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Fabric" dataDxfId="66"/>
-    <tableColumn id="2" name="布料" dataDxfId="65"/>
-    <tableColumn id="3" name="原料" dataDxfId="64"/>
-    <tableColumn id="4" name="特性" dataDxfId="63"/>
-    <tableColumn id="5" name="图案" dataDxfId="62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="表27" displayName="表27" ref="A1:D8" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+  <autoFilter ref="A1:D8"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Style" dataDxfId="49"/>
+    <tableColumn id="2" name="Material" dataDxfId="48"/>
+    <tableColumn id="3" name="Area" dataDxfId="47"/>
+    <tableColumn id="4" name="Country/Region" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="表20" displayName="表20" ref="A135:B143" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
-  <autoFilter ref="A135:B143"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Feature" dataDxfId="59"/>
-    <tableColumn id="2" name="特性" dataDxfId="58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="表19" displayName="表19" ref="A1:E133" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+  <autoFilter ref="A1:E133"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Fabric" dataDxfId="43"/>
+    <tableColumn id="2" name="布料" dataDxfId="42"/>
+    <tableColumn id="3" name="原料" dataDxfId="41"/>
+    <tableColumn id="4" name="特性" dataDxfId="40"/>
+    <tableColumn id="5" name="图案" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8323,10 +8446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -8357,539 +8480,539 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>1582</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="14" t="s">
         <v>1595</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>1581</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="14" t="s">
         <v>1583</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>1996</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>1999</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="14" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>1980</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
         <v>1980</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>1993</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>1994</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>1964</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>1977</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14" t="s">
         <v>1990</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>1978</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14" t="s">
         <v>1990</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>1960</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="14" t="s">
         <v>2001</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="14" t="s">
         <v>1999</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="14" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>1981</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="14" t="s">
         <v>1954</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>1991</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="14" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>1987</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
         <v>1991</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="14" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="14" t="s">
         <v>1965</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="14" t="s">
         <v>1586</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="14" t="s">
         <v>1999</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="14" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="14" t="s">
         <v>2000</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14" t="s">
         <v>1974</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>1972</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="14" t="s">
         <v>1587</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="5" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="14" t="s">
         <v>1956</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="14" t="s">
         <v>1961</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="14" t="s">
         <v>1992</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="14" t="s">
         <v>1966</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="14" t="s">
         <v>1588</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="14" t="s">
         <v>1967</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="14" t="s">
         <v>1989</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="14" t="s">
         <v>1579</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="5" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="14" t="s">
         <v>1984</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="14" t="s">
         <v>1992</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="14" t="s">
         <v>1979</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14" t="s">
         <v>1990</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="14" t="s">
         <v>1995</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14" t="s">
         <v>1994</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="14" t="s">
         <v>1975</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14" t="s">
         <v>1989</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="14" t="s">
         <v>1957</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="14" t="s">
         <v>1963</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="14" t="s">
         <v>1992</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="14" t="s">
         <v>1590</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="14" t="s">
         <v>1591</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="14" t="s">
         <v>1968</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="14" t="s">
         <v>1589</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="14" t="s">
         <v>1998</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14" t="s">
         <v>1999</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="14" t="s">
         <v>1983</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14" t="s">
         <v>1991</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="E28" s="12"/>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="14" t="s">
         <v>1973</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="14" t="s">
         <v>1592</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="14" t="s">
         <v>1982</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14" t="s">
         <v>1991</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="E30" s="12"/>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="14" t="s">
         <v>1955</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="14" t="s">
         <v>1962</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="14" t="s">
         <v>1991</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="14" t="s">
         <v>1969</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="5" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="14" t="s">
         <v>1970</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="14" t="s">
         <v>1593</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5" t="s">
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="14" t="s">
         <v>1971</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="5" t="s">
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="14" t="s">
         <v>1958</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="14" t="s">
         <v>1989</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="E35" s="12"/>
+      <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="14" t="s">
         <v>1580</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="5" t="s">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="14" t="s">
         <v>1959</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="15" t="s">
         <v>1594</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="5" t="s">
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="14" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="14" t="s">
         <v>1997</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12" t="s">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14" t="s">
         <v>1999</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="E38" s="12"/>
+      <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="14" t="s">
         <v>2002</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="5" t="s">
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="14" t="s">
         <v>1976</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12" t="s">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14" t="s">
         <v>1990</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="E40" s="12"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
@@ -8963,462 +9086,511 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="11" t="s">
-        <v>2032</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>2120</v>
+      <c r="A58" s="16" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>2128</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
-        <v>2033</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
-        <v>2034</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
-        <v>2035</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
-        <v>2036</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
-        <v>2037</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="11" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="11" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="11" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="11" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="11" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="11" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="11" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="11" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="11" t="s">
         <v>2038</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="11" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="11" t="s">
         <v>2039</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="11" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="11" t="s">
         <v>2040</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="11" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="11" t="s">
         <v>2041</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="11" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="11" t="s">
         <v>2042</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="11" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="11" t="s">
         <v>2043</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="11" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="11" t="s">
         <v>2044</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="11" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="11" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="11" t="s">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="11" t="s">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="11" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="11" t="s">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="11" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="11" t="s">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="11" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="11" t="s">
-        <v>2054</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="s">
-        <v>2055</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="s">
-        <v>2056</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="s">
-        <v>2057</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="11" t="s">
-        <v>2058</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="s">
-        <v>2059</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="11" t="s">
-        <v>2060</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="s">
-        <v>2061</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="11" t="s">
-        <v>2062</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="s">
-        <v>2063</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="s">
-        <v>2064</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="11" t="s">
-        <v>2065</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="11" t="s">
-        <v>2066</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="11" t="s">
-        <v>2067</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="11" t="s">
-        <v>2068</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="11" t="s">
-        <v>2069</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="11" t="s">
-        <v>2070</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="11" t="s">
-        <v>2071</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="11" t="s">
-        <v>2072</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="11" t="s">
-        <v>2073</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="11" t="s">
-        <v>2074</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="11" t="s">
-        <v>2075</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="11" t="s">
-        <v>2076</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="11" t="s">
-        <v>2077</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="11" t="s">
-        <v>2078</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="11" t="s">
-        <v>2079</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="11" t="s">
-        <v>2080</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="11" t="s">
-        <v>2081</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="11" t="s">
-        <v>2082</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="11" t="s">
-        <v>2083</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="11" t="s">
-        <v>2084</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="11" t="s">
-        <v>2085</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="11" t="s">
-        <v>2086</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="11" t="s">
-        <v>2087</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="11" t="s">
-        <v>2088</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="11" t="s">
-        <v>2089</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="11" t="s">
-        <v>2090</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="11" t="s">
-        <v>2091</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="11" t="s">
-        <v>2092</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="11" t="s">
-        <v>2093</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="11" t="s">
-        <v>2094</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="11" t="s">
-        <v>2095</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="11" t="s">
-        <v>2096</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="11" t="s">
-        <v>2097</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="11" t="s">
-        <v>2098</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="11" t="s">
-        <v>2099</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="11" t="s">
-        <v>2100</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="11" t="s">
-        <v>2101</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="11" t="s">
-        <v>2102</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="11" t="s">
-        <v>2103</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="11" t="s">
-        <v>2104</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="11" t="s">
-        <v>2105</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="11" t="s">
-        <v>2106</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="11" t="s">
-        <v>2107</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="11" t="s">
-        <v>2108</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="11" t="s">
-        <v>2109</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="11" t="s">
-        <v>2110</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="11" t="s">
-        <v>2111</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="11" t="s">
-        <v>2112</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="11" t="s">
-        <v>2113</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="11" t="s">
-        <v>2114</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="11" t="s">
-        <v>2115</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="11" t="s">
-        <v>2116</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="11" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="11" t="s">
-        <v>2118</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="11" t="s">
-        <v>2119</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="11" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" s="11" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" s="11" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" s="11" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" s="11" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" s="11" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" s="11" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" s="11" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" s="11" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" s="11" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" s="11" t="s">
         <v>2121</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9810,7 +9982,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -9997,7 +10169,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -10381,7 +10553,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -10393,8 +10565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -10406,7 +10578,7 @@
     <col min="5" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>2123</v>
       </c>
@@ -10420,49 +10592,49 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
     </row>
-    <row r="4" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
     </row>
-    <row r="6" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
     </row>
-    <row r="12" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>1895</v>
       </c>
@@ -10470,47 +10642,47 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>2008</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>2009</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>2010</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>2011</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>2012</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>2013</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>2014</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>2015</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>2017</v>
       </c>
@@ -10518,33 +10690,33 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>1986</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>2021</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="3">
     <tablePart r:id="rId1"/>
@@ -11560,7 +11732,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="5">
     <tablePart r:id="rId1"/>
@@ -12059,7 +12231,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -12211,7 +12383,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -12567,7 +12739,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="5">
@@ -13555,7 +13727,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -14308,7 +14480,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -18560,7 +18732,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
